--- a/medicine/Enfance/Romans_pour_la_jeunesse_(collection)/Romans_pour_la_jeunesse_(collection).xlsx
+++ b/medicine/Enfance/Romans_pour_la_jeunesse_(collection)/Romans_pour_la_jeunesse_(collection).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Romans pour la jeunesse est une collection française de livres pour la jeunesse créée en 1932 par les Éditions Rouff.
 </t>
@@ -513,7 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Première série (couverture rouge à 50 centimes)
+          <t>Première série (couverture rouge à 50 centimes)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1  Les Écumeurs du Kaouélo par Léonce Prache
 2  Les Naufragés du désert par Jacques Ribières
 3  Le Bouddha qui parle par Paul Darcy
@@ -695,7 +713,43 @@
 198 Le Protecteur inconnu
 199 Le Capitaine de L'Étoile Polaire
 200 Le Cargo maudit
-Deuxième série (couverture bleue à 60 centimes)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Romans_pour_la_jeunesse_(collection)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Romans_pour_la_jeunesse_(collection)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des titres parus</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Deuxième série (couverture bleue à 60 centimes)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 201 L’Équipe sans capitaine
 202 Prisonnier des Pygmées
 203 Les Chasseurs d'hommes
